--- a/Sprint Planning/sprint_plannings_gesammelt.xlsx
+++ b/Sprint Planning/sprint_plannings_gesammelt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pratljad/Documents/5AHIFS_19/ohfounddev/ohfound/Sprint Planning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\ohfound\Sprint Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{0A79FE9A-EE11-2F47-B77B-6936273905BE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D9F79E-2BC9-4F08-BF9E-86AA70904626}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP1" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="22">
   <si>
     <t>MY TASKS</t>
   </si>
@@ -93,6 +94,18 @@
   </si>
   <si>
     <t>USERSTORY #</t>
+  </si>
+  <si>
+    <t>JavaFX Anwendung</t>
+  </si>
+  <si>
+    <t>Von Vorherigen Sprint übernommen</t>
+  </si>
+  <si>
+    <t>User Story 4</t>
+  </si>
+  <si>
+    <t>User Story 5</t>
   </si>
 </sst>
 </file>
@@ -102,7 +115,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,8 +153,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,8 +206,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -190,6 +236,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -214,7 +271,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -259,16 +316,37 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="6" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Date" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Done" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Percent" xfId="4" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Prozent" xfId="4" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Table Text" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -483,13 +561,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tasks" displayName="Tasks" ref="B2:G5" totalsRowShown="0" headerRowCellStyle="Heading 1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tasks" displayName="Tasks" ref="B2:G5" totalsRowShown="0">
   <autoFilter ref="B2:G5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="USERSTORY #" dataCellStyle="Table Text"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="START DATE" dataCellStyle="Date"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="DUE DATE" dataCellStyle="Date"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="% COMPLETE" dataDxfId="7" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="% COMPLETE" dataDxfId="7"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="DONE" dataDxfId="6" dataCellStyle="Done">
       <calculatedColumnFormula>--(Tasks[[#This Row],[% COMPLETE]]&gt;=1)</calculatedColumnFormula>
     </tableColumn>
@@ -505,13 +583,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{21CF6D00-8D5F-4648-BE93-103072A61C77}" name="Tasks3" displayName="Tasks3" ref="B2:G5" totalsRowShown="0" headerRowCellStyle="Heading 1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{21CF6D00-8D5F-4648-BE93-103072A61C77}" name="Tasks3" displayName="Tasks3" ref="B2:G5" totalsRowShown="0">
   <autoFilter ref="B2:G5" xr:uid="{C7324230-E616-0A40-BAC2-D5D0B9B5CD45}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{E964DE5C-AB38-304E-B60B-1BD6110767E8}" name="MY TASKS" dataCellStyle="Table Text"/>
     <tableColumn id="4" xr3:uid="{6424C1F1-8530-9045-9A94-90762DA0A9BC}" name="START DATE" dataCellStyle="Date"/>
     <tableColumn id="5" xr3:uid="{1F0B51D8-E9E4-9440-ACC2-9B8BA27DFF9D}" name="DUE DATE" dataCellStyle="Date"/>
-    <tableColumn id="6" xr3:uid="{95A5BEBD-B579-574F-BEB0-FBB87D66CA9A}" name="% COMPLETE" dataDxfId="5" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{95A5BEBD-B579-574F-BEB0-FBB87D66CA9A}" name="% COMPLETE" dataDxfId="5"/>
     <tableColumn id="7" xr3:uid="{7DA2B139-8F31-884A-A8CF-22AC4952988C}" name="DONE" dataDxfId="4" dataCellStyle="Done">
       <calculatedColumnFormula>--(Tasks3[[#This Row],[% COMPLETE]]&gt;=1)</calculatedColumnFormula>
     </tableColumn>
@@ -527,13 +605,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D05D245F-3BA5-6B43-9337-66A5715BC8E6}" name="Tasks34" displayName="Tasks34" ref="B2:G5" totalsRowShown="0" headerRowCellStyle="Heading 1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D05D245F-3BA5-6B43-9337-66A5715BC8E6}" name="Tasks34" displayName="Tasks34" ref="B2:G5" totalsRowShown="0">
   <autoFilter ref="B2:G5" xr:uid="{F1DBB371-5DDF-9841-B319-E00D702187A2}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{C13D1E15-48C2-C543-8EF9-21A662687DFA}" name="MY TASKS" dataCellStyle="Table Text"/>
     <tableColumn id="4" xr3:uid="{4D358606-104F-F04E-BD31-85B7BF7A6103}" name="START DATE" dataCellStyle="Date"/>
     <tableColumn id="5" xr3:uid="{2AC84C55-E67F-C949-88A4-E646DE5896BF}" name="DUE DATE" dataCellStyle="Date"/>
-    <tableColumn id="6" xr3:uid="{7B1C6BB8-4D87-2C4C-ADD5-5DD834E86184}" name="% COMPLETE" dataDxfId="3" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{7B1C6BB8-4D87-2C4C-ADD5-5DD834E86184}" name="% COMPLETE" dataDxfId="3"/>
     <tableColumn id="7" xr3:uid="{5DCD14ED-35C8-5644-867D-2B9E852B8C4A}" name="DONE" dataDxfId="2" dataCellStyle="Done">
       <calculatedColumnFormula>--(Tasks34[[#This Row],[% COMPLETE]]&gt;=1)</calculatedColumnFormula>
     </tableColumn>
@@ -549,13 +627,13 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9D499615-A320-CD40-AF45-D5A40EA94A81}" name="Tasks345" displayName="Tasks345" ref="B2:G5" totalsRowShown="0" headerRowCellStyle="Heading 1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9D499615-A320-CD40-AF45-D5A40EA94A81}" name="Tasks345" displayName="Tasks345" ref="B2:G5" totalsRowShown="0">
   <autoFilter ref="B2:G5" xr:uid="{876CD7AA-11B4-974F-98B5-7B10DE0BEA3E}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{03AA29F0-EBE7-304F-BC88-F5A984B03EF4}" name="MY TASKS" dataCellStyle="Table Text"/>
     <tableColumn id="4" xr3:uid="{DC41351D-0ECC-5549-9507-A95B6715B89C}" name="START DATE" dataCellStyle="Date"/>
     <tableColumn id="5" xr3:uid="{FEAD3092-71F9-3C4A-9F99-868A57C26D37}" name="DUE DATE" dataCellStyle="Date"/>
-    <tableColumn id="6" xr3:uid="{1552002D-587C-504E-855A-742B7FC0E373}" name="% COMPLETE" dataDxfId="1" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{1552002D-587C-504E-855A-742B7FC0E373}" name="% COMPLETE" dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{D212486A-EE7D-0245-8DB3-0A8F27D98503}" name="DONE" dataDxfId="0" dataCellStyle="Done">
       <calculatedColumnFormula>--(Tasks345[[#This Row],[% COMPLETE]]&gt;=1)</calculatedColumnFormula>
     </tableColumn>
@@ -777,25 +855,25 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:G8"/>
+  <dimension ref="B1:G12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="B12:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.42578125" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" customWidth="1"/>
-    <col min="6" max="6" width="3" customWidth="1"/>
-    <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="2.5" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="2.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
@@ -805,7 +883,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
@@ -825,7 +903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
@@ -846,7 +924,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
@@ -867,7 +945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>12</v>
       </c>
@@ -888,21 +966,78 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="11" t="s">
+    <row r="7" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="17">
+        <v>43789</v>
+      </c>
+      <c r="D7" s="17">
+        <v>43799</v>
+      </c>
+      <c r="E7" s="18">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="17">
+        <v>43789</v>
+      </c>
+      <c r="D8" s="17">
+        <v>43799</v>
+      </c>
+      <c r="E8" s="18">
+        <v>1</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="17">
+        <v>43789</v>
+      </c>
+      <c r="D9" s="17">
+        <v>43799</v>
+      </c>
+      <c r="E9" s="18">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D12" s="13" t="s">
         <v>16</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>
-  <conditionalFormatting sqref="E3:E5">
-    <cfRule type="dataBar" priority="6">
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="E3:E5 E7:E9">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -916,7 +1051,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="542" yWindow="341" count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from the dropdown list. Or enter one of the following: 0%, 25%, 50%, 75%, or 100%" sqref="E3:E5" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from the dropdown list. Or enter one of the following: 0%, 25%, 50%, 75%, or 100%" sqref="E3:E5 E7:E9" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
   </dataValidations>
@@ -947,10 +1082,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E3:E5</xm:sqref>
+          <xm:sqref>E3:E5 E7:E9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="41" id="{04B8B5C2-C7B5-4FE5-B018-764654046486}">
+          <x14:cfRule type="iconSet" priority="43" id="{04B8B5C2-C7B5-4FE5-B018-764654046486}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -967,6 +1102,25 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>F3:F5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="46" id="{064285C8-E198-4DE1-942F-36F67FEC5501}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F8:F9</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -976,25 +1130,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366B1557-3568-B840-A8D0-626BE407A98C}">
-  <dimension ref="B1:G5"/>
+  <dimension ref="B1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.42578125" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
     <col min="6" max="6" width="3" customWidth="1"/>
-    <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="2.5" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="2.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,7 +1158,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1024,7 +1178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
@@ -1043,7 +1197,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
@@ -1062,7 +1216,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
@@ -1081,9 +1235,79 @@
       </c>
       <c r="G5" s="7"/>
     </row>
+    <row r="7" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="17">
+        <v>43789</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="17">
+        <v>43813</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18">
+        <v>0</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="17">
+        <v>43813</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18">
+        <v>0</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="21"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B15:C15"/>
+  </mergeCells>
   <conditionalFormatting sqref="E3:E5">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -1096,14 +1320,29 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E7:E9">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{81D9BEC0-CC7A-4634-A864-50C65B533BBB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from the dropdown list. Or enter one of the following: 0%, 25%, 50%, 75%, or 100%" sqref="E3:E5" xr:uid="{A094973D-EF6A-ED4B-9AE8-267C306E9DB7}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from the dropdown list. Or enter one of the following: 0%, 25%, 50%, 75%, or 100%" sqref="E3:E5 E7:E9" xr:uid="{A094973D-EF6A-ED4B-9AE8-267C306E9DB7}">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -1126,7 +1365,7 @@
           <xm:sqref>E3:E5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{0436C555-AACE-DB46-98C7-DB5BA2070C3F}">
+          <x14:cfRule type="iconSet" priority="4" id="{0436C555-AACE-DB46-98C7-DB5BA2070C3F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1143,6 +1382,42 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>F3:F5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{81D9BEC0-CC7A-4634-A864-50C65B533BBB}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="5"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E7:E9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{78512AC2-FD61-4DB5-B60E-38008D42C0DA}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F8:F9</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1158,19 +1433,19 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.42578125" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
     <col min="6" max="6" width="3" customWidth="1"/>
-    <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="2.5" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="2.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1180,7 +1455,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1200,7 +1475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
@@ -1219,7 +1494,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
@@ -1238,7 +1513,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
@@ -1334,19 +1609,19 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.42578125" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
     <col min="6" max="6" width="3" customWidth="1"/>
-    <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="2.5" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="2.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1356,7 +1631,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1376,7 +1651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
@@ -1395,7 +1670,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
@@ -1414,7 +1689,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>

--- a/Sprint Planning/sprint_plannings_gesammelt.xlsx
+++ b/Sprint Planning/sprint_plannings_gesammelt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\ohfound\Sprint Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D9F79E-2BC9-4F08-BF9E-86AA70904626}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB26F975-7265-4CE9-97E1-E16D4D2DBAF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5430" yWindow="2715" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -858,7 +860,7 @@
   <dimension ref="B1:G12"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="B12:E12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.42578125" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1132,8 +1134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366B1557-3568-B840-A8D0-626BE407A98C}">
   <dimension ref="B1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.42578125" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1244,7 +1246,7 @@
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="18">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>18</v>
@@ -1259,7 +1261,7 @@
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="15" t="s">
@@ -1275,7 +1277,7 @@
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="15" t="s">
@@ -1365,25 +1367,6 @@
           <xm:sqref>E3:E5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{0436C555-AACE-DB46-98C7-DB5BA2070C3F}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>F3:F5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{81D9BEC0-CC7A-4634-A864-50C65B533BBB}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
@@ -1399,6 +1382,25 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>E7:E9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="4" id="{0436C555-AACE-DB46-98C7-DB5BA2070C3F}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F3:F5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="2" id="{78512AC2-FD61-4DB5-B60E-38008D42C0DA}">

--- a/Sprint Planning/sprint_plannings_gesammelt.xlsx
+++ b/Sprint Planning/sprint_plannings_gesammelt.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\ohfound\Sprint Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86964B2F-3F0A-46D2-A923-6DEEE4013209}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="5430" yWindow="2715" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP1" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'SP1'!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="24">
   <si>
     <t>MY TASKS</t>
   </si>
@@ -107,12 +108,18 @@
   </si>
   <si>
     <t>User Story 5</t>
+  </si>
+  <si>
+    <t>User Story 6</t>
+  </si>
+  <si>
+    <t>User Story 7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;&quot;"/>
   </numFmts>
@@ -341,11 +348,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Date" xfId="5"/>
-    <cellStyle name="Done" xfId="3"/>
+    <cellStyle name="Date" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Done" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Prozent" xfId="4" builtinId="5" customBuiltin="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Table Text" xfId="6"/>
+    <cellStyle name="Table Text" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
   </cellStyles>
@@ -543,7 +550,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Task List" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Task List" pivot="0" count="4">
+    <tableStyle name="Task List" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="totalRow" dxfId="9"/>
@@ -562,17 +569,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tasks" displayName="Tasks" ref="B2:G5" totalsRowShown="0">
-  <autoFilter ref="B2:G5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tasks" displayName="Tasks" ref="B2:G5" totalsRowShown="0">
+  <autoFilter ref="B2:G5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="USERSTORY #" dataCellStyle="Table Text"/>
-    <tableColumn id="4" name="START DATE" dataCellStyle="Date"/>
-    <tableColumn id="5" name="DUE DATE" dataCellStyle="Date"/>
-    <tableColumn id="6" name="% COMPLETE" dataDxfId="7"/>
-    <tableColumn id="7" name="DONE" dataDxfId="6" dataCellStyle="Done">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="USERSTORY #" dataCellStyle="Table Text"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="START DATE" dataCellStyle="Date"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="DUE DATE" dataCellStyle="Date"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="% COMPLETE" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="DONE" dataDxfId="6" dataCellStyle="Done">
       <calculatedColumnFormula>--(Tasks[[#This Row],[% COMPLETE]]&gt;=1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="NOTES" dataCellStyle="Table Text"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="NOTES" dataCellStyle="Table Text"/>
   </tableColumns>
   <tableStyleInfo name="Task List" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -584,17 +591,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tasks3" displayName="Tasks3" ref="B2:G5" totalsRowShown="0">
-  <autoFilter ref="B2:G5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tasks3" displayName="Tasks3" ref="B2:G5" totalsRowShown="0">
+  <autoFilter ref="B2:G5" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="MY TASKS" dataCellStyle="Table Text"/>
-    <tableColumn id="4" name="START DATE" dataCellStyle="Date"/>
-    <tableColumn id="5" name="DUE DATE" dataCellStyle="Date"/>
-    <tableColumn id="6" name="% COMPLETE" dataDxfId="5"/>
-    <tableColumn id="7" name="DONE" dataDxfId="4" dataCellStyle="Done">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="MY TASKS" dataCellStyle="Table Text"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="START DATE" dataCellStyle="Date"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="DUE DATE" dataCellStyle="Date"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="% COMPLETE" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="DONE" dataDxfId="4" dataCellStyle="Done">
       <calculatedColumnFormula>--(Tasks3[[#This Row],[% COMPLETE]]&gt;=1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="NOTES" dataCellStyle="Table Text"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="NOTES" dataCellStyle="Table Text"/>
   </tableColumns>
   <tableStyleInfo name="Task List" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -606,17 +613,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tasks34" displayName="Tasks34" ref="B2:G5" totalsRowShown="0">
-  <autoFilter ref="B2:G5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tasks34" displayName="Tasks34" ref="B2:G5" totalsRowShown="0">
+  <autoFilter ref="B2:G5" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="MY TASKS" dataCellStyle="Table Text"/>
-    <tableColumn id="4" name="START DATE" dataCellStyle="Date"/>
-    <tableColumn id="5" name="DUE DATE" dataCellStyle="Date"/>
-    <tableColumn id="6" name="% COMPLETE" dataDxfId="3"/>
-    <tableColumn id="7" name="DONE" dataDxfId="2" dataCellStyle="Done">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="MY TASKS" dataCellStyle="Table Text"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="START DATE" dataCellStyle="Date"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="DUE DATE" dataCellStyle="Date"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="% COMPLETE" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="DONE" dataDxfId="0" dataCellStyle="Done">
       <calculatedColumnFormula>--(Tasks34[[#This Row],[% COMPLETE]]&gt;=1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="NOTES" dataCellStyle="Table Text"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="NOTES" dataCellStyle="Table Text"/>
   </tableColumns>
   <tableStyleInfo name="Task List" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -628,17 +635,17 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tasks345" displayName="Tasks345" ref="B2:G5" totalsRowShown="0">
-  <autoFilter ref="B2:G5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tasks345" displayName="Tasks345" ref="B2:G5" totalsRowShown="0">
+  <autoFilter ref="B2:G5" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="MY TASKS" dataCellStyle="Table Text"/>
-    <tableColumn id="4" name="START DATE" dataCellStyle="Date"/>
-    <tableColumn id="5" name="DUE DATE" dataCellStyle="Date"/>
-    <tableColumn id="6" name="% COMPLETE" dataDxfId="1"/>
-    <tableColumn id="7" name="DONE" dataDxfId="0" dataCellStyle="Done">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="MY TASKS" dataCellStyle="Table Text"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="START DATE" dataCellStyle="Date"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="DUE DATE" dataCellStyle="Date"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="% COMPLETE" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="DONE" dataDxfId="2" dataCellStyle="Done">
       <calculatedColumnFormula>--(Tasks345[[#This Row],[% COMPLETE]]&gt;=1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="NOTES" dataCellStyle="Table Text"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="NOTES" dataCellStyle="Table Text"/>
   </tableColumns>
   <tableStyleInfo name="Task List" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -851,7 +858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
@@ -1119,7 +1126,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="542" yWindow="341" count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from the dropdown list. Or enter one of the following: 0%, 25%, 50%, 75%, or 100%" sqref="E3:E5 E7:E9 E11:E13">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from the dropdown list. Or enter one of the following: 0%, 25%, 50%, 75%, or 100%" sqref="E3:E5 E7:E9 E11:E13" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1153,6 +1160,23 @@
           <xm:sqref>E3:E5 E7:E9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{449FEAAB-9119-4FAB-A8D7-09E3AD807E97}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="5"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E11:E13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="45" id="{04B8B5C2-C7B5-4FE5-B018-764654046486}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
@@ -1189,23 +1213,6 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>F8:F9</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{449FEAAB-9119-4FAB-A8D7-09E3AD807E97}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:borderColor theme="5"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E11:E13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="2" id="{357191A2-4407-4391-A686-D80ED7BD0B53}">
@@ -1233,11 +1240,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B8" sqref="B8:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.42578125" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1488,7 +1495,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from the dropdown list. Or enter one of the following: 0%, 25%, 50%, 75%, or 100%" sqref="E3:E5 E7:E9 E11:E13">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from the dropdown list. Or enter one of the following: 0%, 25%, 50%, 75%, or 100%" sqref="E3:E5 E7:E9 E11:E13" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1535,6 +1542,23 @@
           <xm:sqref>E7:E9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2A9524F4-9629-4132-B698-779C5FCE8605}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="5"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E11:E13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="6" id="{0436C555-AACE-DB46-98C7-DB5BA2070C3F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
@@ -1571,23 +1595,6 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>F8:F9</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2A9524F4-9629-4132-B698-779C5FCE8605}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:borderColor theme="5"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E11:E13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="2" id="{5AC7311B-E10D-480D-830E-78843B89311B}">
@@ -1615,11 +1622,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.42578125" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1737,9 +1744,41 @@
         <v>16</v>
       </c>
     </row>
+    <row r="9" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="17">
+        <v>43469</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="17">
+        <v>43469</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18">
+        <v>1</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E3:E5">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -1753,7 +1792,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -1766,8 +1805,22 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E9:E10">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{32AC8E23-90B0-4C80-B3FB-303C5DF4064F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from the dropdown list. Or enter one of the following: 0%, 25%, 50%, 75%, or 100%" sqref="E3:E5 E7">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from the dropdown list. Or enter one of the following: 0%, 25%, 50%, 75%, or 100%" sqref="E3:E5 E7 E9:E10" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1796,25 +1849,6 @@
           <xm:sqref>E3:E5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{5926E88F-FFE0-174E-83BC-3812768D6A81}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>F3:F5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{12E05F7C-2C97-468E-9EBE-73C0CCFCAF75}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
@@ -1832,7 +1866,26 @@
           <xm:sqref>E7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{B6593281-7F7D-41D7-9CB6-228D6F17F8B5}">
+          <x14:cfRule type="iconSet" priority="6" id="{5926E88F-FFE0-174E-83BC-3812768D6A81}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F3:F5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="4" id="{B6593281-7F7D-41D7-9CB6-228D6F17F8B5}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1849,6 +1902,42 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>F7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{32AC8E23-90B0-4C80-B3FB-303C5DF4064F}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="5"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E9:E10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{39E4E084-AD78-42B9-9D88-6C8B8F0AFB6F}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F9:F10</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1857,7 +1946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1979,7 +2068,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from the dropdown list. Or enter one of the following: 0%, 25%, 50%, 75%, or 100%" sqref="E3:E5">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from the dropdown list. Or enter one of the following: 0%, 25%, 50%, 75%, or 100%" sqref="E3:E5" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Sprint Planning/sprint_plannings_gesammelt.xlsx
+++ b/Sprint Planning/sprint_plannings_gesammelt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\ohfound\Sprint Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86964B2F-3F0A-46D2-A923-6DEEE4013209}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DDDFB4-06BF-4B4B-8637-208A743BD80C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5430" yWindow="2715" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="25">
   <si>
     <t>MY TASKS</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>User Story 7</t>
+  </si>
+  <si>
+    <t>User Story 8</t>
   </si>
 </sst>
 </file>
@@ -373,6 +376,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;&quot;"/>
     </dxf>
     <dxf>
       <font>
@@ -619,9 +623,9 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="MY TASKS" dataCellStyle="Table Text"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="START DATE" dataCellStyle="Date"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="DUE DATE" dataCellStyle="Date"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="% COMPLETE" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="% COMPLETE" dataDxfId="3"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="DONE" dataDxfId="0" dataCellStyle="Done">
-      <calculatedColumnFormula>--(Tasks34[[#This Row],[% COMPLETE]]&gt;=1)</calculatedColumnFormula>
+      <calculatedColumnFormula>--(Tasks3[[#This Row],[% COMPLETE]]&gt;=1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="NOTES" dataCellStyle="Table Text"/>
   </tableColumns>
@@ -641,8 +645,8 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="MY TASKS" dataCellStyle="Table Text"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="START DATE" dataCellStyle="Date"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="DUE DATE" dataCellStyle="Date"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="% COMPLETE" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="DONE" dataDxfId="2" dataCellStyle="Done">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="% COMPLETE" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="DONE" dataDxfId="1" dataCellStyle="Done">
       <calculatedColumnFormula>--(Tasks345[[#This Row],[% COMPLETE]]&gt;=1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="NOTES" dataCellStyle="Table Text"/>
@@ -866,7 +870,7 @@
   <dimension ref="B1:G16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.42578125" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1244,7 +1248,7 @@
   <dimension ref="B1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:G9"/>
+      <selection activeCell="E16" sqref="B15:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.42578125" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1291,39 +1295,39 @@
     </row>
     <row r="3" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="C3" s="5">
+        <v>43785</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="4">
         <f>--(Tasks3[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="C4" s="5">
+        <v>43792</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F4" s="4">
         <f>--(Tasks3[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="7"/>
     </row>
@@ -1623,10 +1627,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:G10"/>
+  <dimension ref="B1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B12" sqref="B12:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.42578125" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1673,60 +1677,66 @@
     </row>
     <row r="3" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="C3" s="5">
+        <v>43785</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="4">
-        <f>--(Tasks34[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="7"/>
+        <f>--(Tasks3[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="C4" s="5">
+        <v>43792</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F4" s="4">
-        <f>--(Tasks34[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="7"/>
+        <f>--(Tasks3[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="C5" s="5">
+        <v>43844</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <f>--(Tasks3[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="4">
-        <f>--(Tasks34[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
@@ -1776,9 +1786,29 @@
         <v>18</v>
       </c>
     </row>
+    <row r="12" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="21"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E3:E5">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="E5">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -1792,7 +1822,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -1806,7 +1836,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E10">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -1819,8 +1849,22 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E4">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A0BEE5FC-BC93-45D8-86A8-DA19CA81840D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from the dropdown list. Or enter one of the following: 0%, 25%, 50%, 75%, or 100%" sqref="E3:E5 E7 E9:E10" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from the dropdown list. Or enter one of the following: 0%, 25%, 50%, 75%, or 100%" sqref="E9:E10 E7 E3:E5" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1846,7 +1890,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E3:E5</xm:sqref>
+          <xm:sqref>E5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{12E05F7C-2C97-468E-9EBE-73C0CCFCAF75}">
@@ -1866,44 +1910,6 @@
           <xm:sqref>E7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="6" id="{5926E88F-FFE0-174E-83BC-3812768D6A81}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>F3:F5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{B6593281-7F7D-41D7-9CB6-228D6F17F8B5}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>F7</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{32AC8E23-90B0-4C80-B3FB-303C5DF4064F}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
@@ -1921,7 +1927,45 @@
           <xm:sqref>E9:E10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{39E4E084-AD78-42B9-9D88-6C8B8F0AFB6F}">
+          <x14:cfRule type="iconSet" priority="8" id="{5926E88F-FFE0-174E-83BC-3812768D6A81}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="6" id="{B6593281-7F7D-41D7-9CB6-228D6F17F8B5}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="4" id="{39E4E084-AD78-42B9-9D88-6C8B8F0AFB6F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1938,6 +1982,42 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>F9:F10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A0BEE5FC-BC93-45D8-86A8-DA19CA81840D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="5"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E3:E4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{4AC9A551-C0DE-45B0-BDE5-24D871A08F1E}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F3:F4</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Sprint Planning/sprint_plannings_gesammelt.xlsx
+++ b/Sprint Planning/sprint_plannings_gesammelt.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\ohfound\Sprint Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DDDFB4-06BF-4B4B-8637-208A743BD80C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23154231-F346-4C46-8199-4367E6C9281B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP1" sheetId="1" r:id="rId1"/>
     <sheet name="SP2" sheetId="2" r:id="rId2"/>
     <sheet name="SP3" sheetId="3" r:id="rId3"/>
-    <sheet name="PB" sheetId="4" r:id="rId4"/>
+    <sheet name="SP4" sheetId="5" r:id="rId4"/>
+    <sheet name="PB" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'SP1'!$2:$2</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="27">
   <si>
     <t>MY TASKS</t>
   </si>
@@ -117,6 +118,12 @@
   </si>
   <si>
     <t>User Story 8</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
   </si>
 </sst>
 </file>
@@ -282,7 +289,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -348,6 +355,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -359,7 +381,7 @@
     <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
     <dxf>
       <font>
         <b val="0"/>
@@ -411,6 +433,41 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;&quot;"/>
     </dxf>
     <dxf>
       <font>
@@ -555,10 +612,10 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Task List" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Task List" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="11"/>
-      <tableStyleElement type="headerRow" dxfId="10"/>
-      <tableStyleElement type="totalRow" dxfId="9"/>
-      <tableStyleElement type="firstColumn" dxfId="8"/>
+      <tableStyleElement type="wholeTable" dxfId="13"/>
+      <tableStyleElement type="headerRow" dxfId="12"/>
+      <tableStyleElement type="totalRow" dxfId="11"/>
+      <tableStyleElement type="firstColumn" dxfId="10"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -579,8 +636,8 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="USERSTORY #" dataCellStyle="Table Text"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="START DATE" dataCellStyle="Date"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="DUE DATE" dataCellStyle="Date"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="% COMPLETE" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="DONE" dataDxfId="6" dataCellStyle="Done">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="% COMPLETE" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="DONE" dataDxfId="8" dataCellStyle="Done">
       <calculatedColumnFormula>--(Tasks[[#This Row],[% COMPLETE]]&gt;=1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="NOTES" dataCellStyle="Table Text"/>
@@ -601,8 +658,8 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="MY TASKS" dataCellStyle="Table Text"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="START DATE" dataCellStyle="Date"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="DUE DATE" dataCellStyle="Date"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="% COMPLETE" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="DONE" dataDxfId="4" dataCellStyle="Done">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="% COMPLETE" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="DONE" dataDxfId="6" dataCellStyle="Done">
       <calculatedColumnFormula>--(Tasks3[[#This Row],[% COMPLETE]]&gt;=1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="NOTES" dataCellStyle="Table Text"/>
@@ -623,8 +680,8 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="MY TASKS" dataCellStyle="Table Text"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="START DATE" dataCellStyle="Date"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="DUE DATE" dataCellStyle="Date"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="% COMPLETE" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="DONE" dataDxfId="0" dataCellStyle="Done">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="% COMPLETE" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="DONE" dataDxfId="4" dataCellStyle="Done">
       <calculatedColumnFormula>--(Tasks3[[#This Row],[% COMPLETE]]&gt;=1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="NOTES" dataCellStyle="Table Text"/>
@@ -639,14 +696,36 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5D5E7582-994E-4150-A207-CD8FB4D34EFC}" name="Tasks346" displayName="Tasks346" ref="B2:G4" totalsRowShown="0">
+  <autoFilter ref="B2:G4" xr:uid="{4CAE11B1-06EC-44D8-8391-CDD436A85C2B}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{044483E5-E13F-45A7-855D-6EFF8B753BC6}" name="MY TASKS" dataCellStyle="Table Text"/>
+    <tableColumn id="4" xr3:uid="{C2363D56-263A-457A-841F-972CC053E37E}" name="START DATE" dataCellStyle="Date"/>
+    <tableColumn id="5" xr3:uid="{92354069-6948-46B7-BB31-3BC75EF465AE}" name="DUE DATE" dataCellStyle="Date"/>
+    <tableColumn id="6" xr3:uid="{6FADA14A-5E00-4F3F-A4B0-59E59116C298}" name="% COMPLETE" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{F5427483-EE3F-406F-BA62-CDD6A8A8FB53}" name="DONE" dataDxfId="0" dataCellStyle="Done">
+      <calculatedColumnFormula>--(Tasks3[[#This Row],[% COMPLETE]]&gt;=1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{D3819BA0-56E1-47CA-B476-1CEEFC2C52BA}" name="NOTES" dataCellStyle="Table Text"/>
+  </tableColumns>
+  <tableStyleInfo name="Task List" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altTextSummary="A table for tracking a list of tasks. Enter task names, start and end dates, percent complete and any notes. An icon will appear in the Done column F for tasks that reach 100% complete"/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tasks345" displayName="Tasks345" ref="B2:G5" totalsRowShown="0">
   <autoFilter ref="B2:G5" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="MY TASKS" dataCellStyle="Table Text"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="START DATE" dataCellStyle="Date"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="DUE DATE" dataCellStyle="Date"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="% COMPLETE" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="DONE" dataDxfId="1" dataCellStyle="Done">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="% COMPLETE" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="DONE" dataDxfId="2" dataCellStyle="Done">
       <calculatedColumnFormula>--(Tasks345[[#This Row],[% COMPLETE]]&gt;=1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="NOTES" dataCellStyle="Table Text"/>
@@ -1248,7 +1327,7 @@
   <dimension ref="B1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="B15:E16"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.42578125" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1265,7 +1344,7 @@
   <sheetData>
     <row r="1" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1310,7 +1389,9 @@
         <f>--(Tasks3[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
@@ -1329,7 +1410,9 @@
         <f>--(Tasks3[[#This Row],[% COMPLETE]]&gt;=1)</f>
         <v>1</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
@@ -1629,8 +1712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="A1:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.42578125" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1647,7 +1730,7 @@
   <sheetData>
     <row r="1" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1927,63 +2010,6 @@
           <xm:sqref>E9:E10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="8" id="{5926E88F-FFE0-174E-83BC-3812768D6A81}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>F5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="6" id="{B6593281-7F7D-41D7-9CB6-228D6F17F8B5}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>F7</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{39E4E084-AD78-42B9-9D88-6C8B8F0AFB6F}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>F9:F10</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A0BEE5FC-BC93-45D8-86A8-DA19CA81840D}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
@@ -1999,6 +2025,63 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>E3:E4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="8" id="{5926E88F-FFE0-174E-83BC-3812768D6A81}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="6" id="{B6593281-7F7D-41D7-9CB6-228D6F17F8B5}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="4" id="{39E4E084-AD78-42B9-9D88-6C8B8F0AFB6F}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F9:F10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="2" id="{4AC9A551-C0DE-45B0-BDE5-24D871A08F1E}">
@@ -2026,6 +2109,401 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AEE9EF-1C3C-47CA-B123-B042AFD3DD58}">
+  <dimension ref="B1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="42" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="2:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="17">
+        <v>43878</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="17">
+        <v>43878</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="17">
+        <v>43878</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18">
+        <v>1</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="17">
+        <v>43878</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18">
+        <v>0</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="17">
+        <v>43878</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18">
+        <v>0</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="17">
+        <v>43878</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18">
+        <v>0</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="21"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{80BA03E9-87D7-48DB-8B3A-D9FD39AFE0E1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8:E9">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EB463417-683A-40C9-B8FB-8ED1481CF600}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E4">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C29DD7A9-78B4-4EE9-A83D-57252916DB24}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E11">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{352D90C3-FF7C-418D-83FD-AFF6B8CCDE05}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from the dropdown list. Or enter one of the following: 0%, 25%, 50%, 75%, or 100%" sqref="E8:E11 E6 E3:E4" xr:uid="{8271714D-4158-4BE7-A91E-3BC7A739A704}">
+      <formula1>"0%,25%,50%,75%,100%"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{80BA03E9-87D7-48DB-8B3A-D9FD39AFE0E1}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="5"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EB463417-683A-40C9-B8FB-8ED1481CF600}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="5"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E8:E9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C29DD7A9-78B4-4EE9-A83D-57252916DB24}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="5"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E3:E4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="8" id="{5F18712F-80DF-4BBA-9B9F-943DDC2F31B0}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="6" id="{99BD49B9-E895-4305-8123-3458854DBFF6}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F8:F9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="4" id="{77CAEE47-E6AE-468C-B98D-AEF502A2E7D7}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F3:F4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{352D90C3-FF7C-418D-83FD-AFF6B8CCDE05}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="5"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E10:E11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{A81281EA-5164-40EF-A94C-20C03320C550}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F10:F11</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:G5"/>
   <sheetViews>

--- a/Sprint Planning/sprint_plannings_gesammelt.xlsx
+++ b/Sprint Planning/sprint_plannings_gesammelt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\ohfound\Sprint Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23154231-F346-4C46-8199-4367E6C9281B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B84079-5FCD-483C-90F7-DBF519C2F1ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="2145" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP1" sheetId="1" r:id="rId1"/>
@@ -398,7 +398,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;&quot;"/>
     </dxf>
     <dxf>
       <font>
@@ -433,6 +432,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;&quot;"/>
     </dxf>
     <dxf>
       <font>
@@ -702,8 +702,8 @@
     <tableColumn id="1" xr3:uid="{044483E5-E13F-45A7-855D-6EFF8B753BC6}" name="MY TASKS" dataCellStyle="Table Text"/>
     <tableColumn id="4" xr3:uid="{C2363D56-263A-457A-841F-972CC053E37E}" name="START DATE" dataCellStyle="Date"/>
     <tableColumn id="5" xr3:uid="{92354069-6948-46B7-BB31-3BC75EF465AE}" name="DUE DATE" dataCellStyle="Date"/>
-    <tableColumn id="6" xr3:uid="{6FADA14A-5E00-4F3F-A4B0-59E59116C298}" name="% COMPLETE" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{F5427483-EE3F-406F-BA62-CDD6A8A8FB53}" name="DONE" dataDxfId="0" dataCellStyle="Done">
+    <tableColumn id="6" xr3:uid="{6FADA14A-5E00-4F3F-A4B0-59E59116C298}" name="% COMPLETE" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{F5427483-EE3F-406F-BA62-CDD6A8A8FB53}" name="DONE" dataDxfId="2" dataCellStyle="Done">
       <calculatedColumnFormula>--(Tasks3[[#This Row],[% COMPLETE]]&gt;=1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{D3819BA0-56E1-47CA-B476-1CEEFC2C52BA}" name="NOTES" dataCellStyle="Table Text"/>
@@ -724,8 +724,8 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="MY TASKS" dataCellStyle="Table Text"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="START DATE" dataCellStyle="Date"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="DUE DATE" dataCellStyle="Date"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="% COMPLETE" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="DONE" dataDxfId="2" dataCellStyle="Done">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="% COMPLETE" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="DONE" dataDxfId="0" dataCellStyle="Done">
       <calculatedColumnFormula>--(Tasks345[[#This Row],[% COMPLETE]]&gt;=1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="NOTES" dataCellStyle="Table Text"/>
@@ -2113,7 +2113,7 @@
   <dimension ref="B1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="18">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="11" t="s">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="18">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="11" t="s">
@@ -2249,7 +2249,7 @@
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="18">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="11" t="s">
@@ -2405,63 +2405,6 @@
           <xm:sqref>E3:E4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="8" id="{5F18712F-80DF-4BBA-9B9F-943DDC2F31B0}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>F6</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="6" id="{99BD49B9-E895-4305-8123-3458854DBFF6}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>F8:F9</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{77CAEE47-E6AE-468C-B98D-AEF502A2E7D7}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>F3:F4</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{352D90C3-FF7C-418D-83FD-AFF6B8CCDE05}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
@@ -2477,6 +2420,63 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>E10:E11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="8" id="{5F18712F-80DF-4BBA-9B9F-943DDC2F31B0}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="6" id="{99BD49B9-E895-4305-8123-3458854DBFF6}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F8:F9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="4" id="{77CAEE47-E6AE-468C-B98D-AEF502A2E7D7}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F3:F4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="2" id="{A81281EA-5164-40EF-A94C-20C03320C550}">

--- a/Sprint Planning/sprint_plannings_gesammelt.xlsx
+++ b/Sprint Planning/sprint_plannings_gesammelt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\ohfound\Sprint Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B84079-5FCD-483C-90F7-DBF519C2F1ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB740F1F-36A2-4CC1-A539-713C7DF10BE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="2145" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP1" sheetId="1" r:id="rId1"/>
@@ -1713,7 +1713,7 @@
   <dimension ref="B1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="A1:G15"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.42578125" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2113,7 +2113,7 @@
   <dimension ref="B1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
